--- a/data/trans_bre/P16B09-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16B09-Clase-trans_bre.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,76</t>
+          <t>0,0; 43,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 68,92</t>
+          <t>0,0; 75,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -802,7 +802,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,14</t>
+          <t>0,0; 28,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,12</t>
+          <t>0,0; 40,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,94</t>
+          <t>0,0; 8,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -897,7 +897,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,04</t>
+          <t>0,0; 8,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -967,12 +967,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,52; 0,0</t>
+          <t>-9,53; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-21,28; 0,0</t>
+          <t>-19,79; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -982,12 +982,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,52; 0,0</t>
+          <t>-9,53; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-21,28; 0,0</t>
+          <t>-19,79; 0,0</t>
         </is>
       </c>
     </row>
@@ -1122,12 +1122,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 6,07</t>
+          <t>-1,21; 5,99</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,13; -0,49</t>
+          <t>-4,42; -0,49</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 6,46</t>
+          <t>-1,22; 6,39</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,13; -0,49</t>
+          <t>-4,42; -0,49</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">

--- a/data/trans_bre/P16B09-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16B09-Clase-trans_bre.xlsx
@@ -994,7 +994,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
